--- a/testAutomation/target/test-classes/searchedProduct.xlsx
+++ b/testAutomation/target/test-classes/searchedProduct.xlsx
@@ -44,91 +44,91 @@
     <t>Apple iPhone 15 Plus (Black, 128 GB)</t>
   </si>
   <si>
+    <t>Apple iPhone 15 Plus (Green, 128 GB)</t>
+  </si>
+  <si>
     <t>Apple iPhone 15 Plus (Pink, 128 GB)</t>
   </si>
   <si>
-    <t>Apple iPhone 15 Plus (Green, 128 GB)</t>
+    <t>Apple iPhone 15 Pro (White Titanium, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹1,13,999</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro (Natural Titanium, 256 GB)</t>
   </si>
   <si>
-    <t>₹1,13,999</t>
+    <t>Apple iPhone 15 Pro (Natural Titanium, 1 TB)</t>
+  </si>
+  <si>
+    <t>₹1,29,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro Max (Natural Titanium, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹1,44,900</t>
   </si>
   <si>
     <t>Apple iPhone 15 (Yellow, 128 GB)</t>
   </si>
   <si>
+    <t>Apple iPhone 15 (Green, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹68,999</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro (Natural Titanium, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹1,19,900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 (Black, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹89,900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Pro (Natural Titanium, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹1,29,900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 16 Plus (Black, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹99,900</t>
+  </si>
+  <si>
+    <t>Apple iPhone 15 Pro (Black Titanium, 512 GB)</t>
+  </si>
+  <si>
+    <t>₹1,21,999</t>
+  </si>
+  <si>
     <t>Apple iPhone 15 Pro Max (Natural Titanium, 1 TB)</t>
   </si>
   <si>
     <t>₹1,39,999</t>
   </si>
   <si>
-    <t>Apple iPhone 15 (Green, 256 GB)</t>
-  </si>
-  <si>
-    <t>₹68,999</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Pro (Natural Titanium, 128 GB)</t>
-  </si>
-  <si>
-    <t>₹1,19,900</t>
-  </si>
-  <si>
     <t>Apple iPhone 15 Pro (Natural Titanium, 512 GB)</t>
   </si>
   <si>
-    <t>₹1,21,999</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 (Black, 256 GB)</t>
-  </si>
-  <si>
-    <t>₹89,900</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro (Black Titanium, 256 GB)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Plus (Black, 256 GB)</t>
-  </si>
-  <si>
-    <t>₹99,900</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro (Black Titanium, 512 GB)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro (White Titanium, 256 GB)</t>
-  </si>
-  <si>
-    <t>Apple iPhone 15 Pro (Natural Titanium, 1 TB)</t>
-  </si>
-  <si>
-    <t>₹1,29,999</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Pro Max (Natural Titanium, 256 GB)</t>
-  </si>
-  <si>
-    <t>₹1,44,900</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 (Ultramarine, 256 GB)</t>
+    <t>Apple iPhone 15 Pro Max (Blue Titanium, 512 GB)</t>
+  </si>
+  <si>
+    <t>₹1,31,999</t>
   </si>
   <si>
     <t>Apple iPhone 15 Pro Max (Natural Titanium, 512 GB)</t>
   </si>
   <si>
-    <t>₹1,31,999</t>
-  </si>
-  <si>
-    <t>Apple iPhone 16 Pro (White Titanium, 256 GB)</t>
-  </si>
-  <si>
-    <t>₹1,29,900</t>
+    <t>Apple iPhone 15 (Black, 256 GB)</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -288,31 +288,31 @@
         <v>19</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -328,44 +328,44 @@
         <v>28</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>36</v>
@@ -373,10 +373,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
